--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H2">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J2">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>495.3450822560007</v>
+        <v>342.6562177537782</v>
       </c>
       <c r="R2">
-        <v>4458.105740304006</v>
+        <v>3083.905959784004</v>
       </c>
       <c r="S2">
-        <v>0.007552938887522269</v>
+        <v>0.003849440305100934</v>
       </c>
       <c r="T2">
-        <v>0.007552938887522269</v>
+        <v>0.003849440305100934</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H3">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J3">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>7086.494208319871</v>
+        <v>29900.81959836915</v>
       </c>
       <c r="R3">
-        <v>63778.44787487884</v>
+        <v>269107.3763853224</v>
       </c>
       <c r="S3">
-        <v>0.1080536773242026</v>
+        <v>0.3359093288078674</v>
       </c>
       <c r="T3">
-        <v>0.1080536773242026</v>
+        <v>0.3359093288078674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.496322</v>
+        <v>99.14059966666667</v>
       </c>
       <c r="H4">
-        <v>70.488966</v>
+        <v>297.421799</v>
       </c>
       <c r="I4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="J4">
-        <v>0.1321353991144917</v>
+        <v>0.3911422343348016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>1084.008681718393</v>
+        <v>4573.876317724717</v>
       </c>
       <c r="R4">
-        <v>9756.078135465536</v>
+        <v>41164.88685952246</v>
       </c>
       <c r="S4">
-        <v>0.0165287829027668</v>
+        <v>0.05138346522183322</v>
       </c>
       <c r="T4">
-        <v>0.0165287829027668</v>
+        <v>0.05138346522183321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J5">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>2633.372211457789</v>
+        <v>431.7291305261777</v>
       </c>
       <c r="R5">
-        <v>23700.3499031201</v>
+        <v>3885.562174735599</v>
       </c>
       <c r="S5">
-        <v>0.0401532186221661</v>
+        <v>0.004850095897363373</v>
       </c>
       <c r="T5">
-        <v>0.0401532186221661</v>
+        <v>0.004850095897363372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J6">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>37673.48782358896</v>
@@ -818,10 +818,10 @@
         <v>339061.3904123005</v>
       </c>
       <c r="S6">
-        <v>0.5744390353396601</v>
+        <v>0.4232283990423912</v>
       </c>
       <c r="T6">
-        <v>0.5744390353396601</v>
+        <v>0.4232283990423912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="J7">
-        <v>0.7024631931202969</v>
+        <v>0.4928190063160421</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>5762.847844204322</v>
@@ -880,10 +880,10 @@
         <v>51865.6305978389</v>
       </c>
       <c r="S7">
-        <v>0.08787093915847069</v>
+        <v>0.06474051137628757</v>
       </c>
       <c r="T7">
-        <v>0.08787093915847069</v>
+        <v>0.06474051137628756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H8">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J8">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>620.0516627926951</v>
+        <v>101.65458726042</v>
       </c>
       <c r="R8">
-        <v>5580.464965134256</v>
+        <v>914.8912853437801</v>
       </c>
       <c r="S8">
-        <v>0.009454443950166131</v>
+        <v>0.001141999605213193</v>
       </c>
       <c r="T8">
-        <v>0.009454443950166133</v>
+        <v>0.001141999605213193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H9">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J9">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
-        <v>8870.568568537172</v>
+        <v>8870.56856853717</v>
       </c>
       <c r="R9">
-        <v>79835.11711683455</v>
+        <v>79835.11711683453</v>
       </c>
       <c r="S9">
-        <v>0.1352569444933164</v>
+        <v>0.09965301199181863</v>
       </c>
       <c r="T9">
-        <v>0.1352569444933164</v>
+        <v>0.09965301199181861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.41168500000001</v>
+        <v>29.411685</v>
       </c>
       <c r="H10">
-        <v>88.23505500000002</v>
+        <v>88.235055</v>
       </c>
       <c r="I10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="J10">
-        <v>0.1654014077652114</v>
+        <v>0.1160387593491562</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
-        <v>1356.915430592356</v>
+        <v>1356.915430592355</v>
       </c>
       <c r="R10">
         <v>12212.2388753312</v>
       </c>
       <c r="S10">
-        <v>0.02069001932172886</v>
+        <v>0.01524374775212439</v>
       </c>
       <c r="T10">
-        <v>0.02069001932172886</v>
+        <v>0.01524374775212438</v>
       </c>
     </row>
   </sheetData>
